--- a/rnn/gain_new3/doc/수질데이터목록리스트_2021-01-30_17-50.xlsx
+++ b/rnn/gain_new3/doc/수질데이터목록리스트_2021-01-30_17-50.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotech\OneDrive\문서\사대강\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\사업관련\환경AI\모듈작업\water-quality-main\water-quality-main\gain_new3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="529">
   <si>
     <t>낙동강</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1424,238 +1424,761 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>1010G60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010L40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010L60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013L20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013R60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1015L20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1015R40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013A40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S02021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S02020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S02022</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009A10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008A40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007A40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006A20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009A10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007A30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>47G0171</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>47A0631</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>47A0011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007A25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009R05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007R30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007R25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S03009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S03003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S03010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S03007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3008A52</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3008B60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3008B30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3008B20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3008L60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3008L30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3008L20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S04008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4007A25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4007D60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4007A20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4007A25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4007D55</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4007B50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안심저수지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4007D25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>46A0181</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4007G50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4007L50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4007B60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S04002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S04012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S04005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S04003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S04009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5004A32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5004A27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5004A17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5004A10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5004A05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001A20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5004A35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5004A30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5004A20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001A80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001A70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001A40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001A27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29A0012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29A0011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>46G0021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>46H0011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>46A0111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>46F0021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>46C0071</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>46G0061</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴적물측정망</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5004R35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5004R34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5004R12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5004R10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5004R08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001R80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5004A10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001A40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방사성물질측정망</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리수문기상 댐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리수문기상 보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리수문기상 유량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리수문기상 수위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍양</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S02014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영강2-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005A30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상주1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007A20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005A30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사벌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문경시(말응리)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예천군(상풍교)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문경시(말응리)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영강2-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005R30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4007A20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null | 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,17 x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,17 x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,17,18 x 19 0 | N</t>
+  </si>
+  <si>
+    <t>16,17,18 x 19 0 | N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,17,18 X</t>
+  </si>
+  <si>
+    <t>16,17,18 X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,17 X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,17 X 18 19 0 | N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 | N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 || N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서상 2016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿼리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름바꿈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서상 2017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,27,28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클로로필 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>44번 클로로필없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙동강</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼부족</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,39,41,42,43 X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">18 X, 19=[25%] </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클로로필없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동복호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동복천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의동저수지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동복댐2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동복댐2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16~18없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31,32 X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만봉천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장성천2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평동천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영산포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>승촌보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽산보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나주시(회진리)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주광역시(어등대교)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주광역시(용산교)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나주시(영산교)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주광역시(승용교)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주광역시(극락교)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주제1하수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남양유업(나주)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙축산(나주)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나주하수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광산D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주2-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화인코리아(나주)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>1011G50</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1010G60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010L40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010L60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1013L20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1013R60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1015L20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1015R40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1013A40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S02021</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S02020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S02022</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2009A10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2008A40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2007A40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2006A20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2009A10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2007A30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>47G0171</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>47A0631</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>47A0011</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2009A05</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2007A25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2009R05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2007R30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2007R25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S03009</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S03003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S03010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S03007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3008A52</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3008B60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3008B30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3008B20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3008I60</t>
-  </si>
-  <si>
-    <t>3008L60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3008L30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3008L20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S04008</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4007A25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4007D60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4007A20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4007A25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4007D55</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4007B50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>안심저수지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4007D25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>46A0181</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4007G50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4007L50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4007B60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S04002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S04012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S04005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S04003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S04009</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5004A32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5004A27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5004A17</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1663,215 +2186,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5004A05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5001A20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5004A35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5004A30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5004A20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5001A80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5001A70</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5001A40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5001A27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>29A0012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>29A0011</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>46G0021</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>46H0011</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>46A0111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>46F0021</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>46C0071</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>46G0061</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5004A35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>퇴적물측정망</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5004R35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5004R34</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5004R12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5004R10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5004R08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5001R80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5004A10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5001A40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방사성물질측정망</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리수문기상 댐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리수문기상 보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리수문기상 유량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리수문기상 수위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍양</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S02014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>영강2-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2005A30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상주1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2007A20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2005A30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사벌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문경시(말응리)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예천군(상풍교)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문경시(말응리)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>영강2-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2005R30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4007A20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용</t>
+    <t>x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19년도만 존재함</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1879,325 +2202,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>데이터 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>null | 0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,17 x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,17 x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,17,18 x 19 0 | N</t>
-  </si>
-  <si>
-    <t>16,17,18 x 19 0 | N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,17,18 X</t>
-  </si>
-  <si>
-    <t>16,17,18 X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떠한 응답도 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,17 X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,17 X 18 19 0 | N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 | N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 || N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서상 2016</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿼리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름바꿈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서상 2017</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,27,28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>클로로필 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>44번 클로로필없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>낙동강</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>컬럼부족</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,38,39,41,42,43 X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">18 X, 19=[25%] </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>클로로필없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동복호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동복천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>의동저수지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동복댐2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동복댐2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16~18없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>31,32 X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>만봉천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장성천2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>평동천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>영산포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나주</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>승촌보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>죽산보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나주시(회진리)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주광역시(어등대교)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주광역시(용산교)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나주시(영산교)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주광역시(승용교)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주광역시(극락교)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주제1하수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>남양유업(나주)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중앙축산(나주)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나주하수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>죽산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광산D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주2-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화인코리아(나주)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
+    <t>16년도 없음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2342,7 +2347,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2400,6 +2405,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2739,7 +2750,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3208,15 +3219,42 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3244,30 +3282,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3276,6 +3290,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3697,6 +3714,33 @@
             </a:p>
             <a:p>
               <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="2000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>                                          </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="2000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>는 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="2000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>2021-01-30</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
               <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
@@ -3843,6 +3887,51 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="직사각형 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21468117" y="1599168"/>
+            <a:ext cx="282621" cy="257736"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -3900,6 +3989,99 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23404286" y="3401784"/>
+          <a:ext cx="3238500" cy="8722179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="4400"/>
+            <a:t>전구간 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="4400"/>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="4400"/>
+            <a:t>년도 없음으로</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="4400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="4400"/>
+            <a:t>2021-01-30</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="4400"/>
+            <a:t>현재로서는</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="4400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="4400"/>
+            <a:t>사용안함 </a:t>
+          </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -5997,9 +6179,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BB22" sqref="BB22"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BC27" sqref="BC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="26.25" x14ac:dyDescent="0.3"/>
@@ -6067,173 +6249,173 @@
     <col min="63" max="63" width="9.125" style="54" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="3.5" style="28" customWidth="1"/>
     <col min="65" max="65" width="3.5" style="54" customWidth="1"/>
-    <col min="66" max="66" width="10" style="36" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.25" style="36" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="218.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="159"/>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="159"/>
-      <c r="S1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="159"/>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="159"/>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="159"/>
-      <c r="AG1" s="159"/>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="159"/>
-      <c r="AJ1" s="159"/>
-      <c r="AK1" s="159"/>
-      <c r="AL1" s="159"/>
-      <c r="AM1" s="159"/>
-      <c r="AN1" s="159"/>
-      <c r="AO1" s="159"/>
-      <c r="AP1" s="159"/>
-      <c r="AQ1" s="159"/>
-      <c r="AR1" s="159"/>
-      <c r="AS1" s="159"/>
-      <c r="AT1" s="159"/>
-      <c r="AU1" s="159"/>
-      <c r="AV1" s="159"/>
-      <c r="AW1" s="159"/>
-      <c r="AX1" s="159"/>
-      <c r="AY1" s="159"/>
-      <c r="AZ1" s="159"/>
-      <c r="BA1" s="159"/>
-      <c r="BB1" s="159"/>
-      <c r="BC1" s="159"/>
-      <c r="BD1" s="159"/>
-      <c r="BE1" s="159"/>
-      <c r="BF1" s="159"/>
-      <c r="BG1" s="159"/>
-      <c r="BH1" s="159"/>
-      <c r="BI1" s="159"/>
-      <c r="BJ1" s="159"/>
-      <c r="BK1" s="159"/>
-      <c r="BL1" s="159"/>
-      <c r="BM1" s="159"/>
-      <c r="BN1" s="160"/>
+      <c r="A1" s="168"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="168"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="168"/>
+      <c r="AH1" s="168"/>
+      <c r="AI1" s="168"/>
+      <c r="AJ1" s="168"/>
+      <c r="AK1" s="168"/>
+      <c r="AL1" s="168"/>
+      <c r="AM1" s="168"/>
+      <c r="AN1" s="168"/>
+      <c r="AO1" s="168"/>
+      <c r="AP1" s="168"/>
+      <c r="AQ1" s="168"/>
+      <c r="AR1" s="168"/>
+      <c r="AS1" s="168"/>
+      <c r="AT1" s="168"/>
+      <c r="AU1" s="168"/>
+      <c r="AV1" s="168"/>
+      <c r="AW1" s="168"/>
+      <c r="AX1" s="168"/>
+      <c r="AY1" s="168"/>
+      <c r="AZ1" s="168"/>
+      <c r="BA1" s="168"/>
+      <c r="BB1" s="168"/>
+      <c r="BC1" s="168"/>
+      <c r="BD1" s="168"/>
+      <c r="BE1" s="168"/>
+      <c r="BF1" s="168"/>
+      <c r="BG1" s="168"/>
+      <c r="BH1" s="168"/>
+      <c r="BI1" s="168"/>
+      <c r="BJ1" s="168"/>
+      <c r="BK1" s="168"/>
+      <c r="BL1" s="168"/>
+      <c r="BM1" s="168"/>
+      <c r="BN1" s="169"/>
     </row>
     <row r="2" spans="1:68" s="99" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="163" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="174" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="164" t="s">
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="173" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="164" t="s">
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="173" t="s">
         <v>193</v>
       </c>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="161" t="s">
-        <v>421</v>
-      </c>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="161" t="s">
-        <v>422</v>
-      </c>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="161" t="s">
-        <v>423</v>
-      </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="162"/>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="161" t="s">
-        <v>424</v>
-      </c>
-      <c r="AG2" s="162"/>
-      <c r="AH2" s="162"/>
-      <c r="AI2" s="162"/>
-      <c r="AJ2" s="167"/>
-      <c r="AK2" s="164" t="s">
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="170" t="s">
+        <v>417</v>
+      </c>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="176"/>
+      <c r="V2" s="170" t="s">
+        <v>418</v>
+      </c>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="170" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB2" s="171"/>
+      <c r="AC2" s="171"/>
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="176"/>
+      <c r="AF2" s="170" t="s">
+        <v>420</v>
+      </c>
+      <c r="AG2" s="171"/>
+      <c r="AH2" s="171"/>
+      <c r="AI2" s="171"/>
+      <c r="AJ2" s="176"/>
+      <c r="AK2" s="173" t="s">
         <v>190</v>
       </c>
-      <c r="AL2" s="165"/>
-      <c r="AM2" s="165"/>
-      <c r="AN2" s="165"/>
-      <c r="AO2" s="166"/>
-      <c r="AP2" s="164" t="s">
+      <c r="AL2" s="174"/>
+      <c r="AM2" s="174"/>
+      <c r="AN2" s="174"/>
+      <c r="AO2" s="175"/>
+      <c r="AP2" s="173" t="s">
         <v>191</v>
       </c>
-      <c r="AQ2" s="165"/>
-      <c r="AR2" s="165"/>
-      <c r="AS2" s="165"/>
-      <c r="AT2" s="166"/>
-      <c r="AU2" s="164" t="s">
+      <c r="AQ2" s="174"/>
+      <c r="AR2" s="174"/>
+      <c r="AS2" s="174"/>
+      <c r="AT2" s="175"/>
+      <c r="AU2" s="173" t="s">
         <v>192</v>
       </c>
-      <c r="AV2" s="165"/>
-      <c r="AW2" s="165"/>
-      <c r="AX2" s="165"/>
-      <c r="AY2" s="166"/>
-      <c r="AZ2" s="161" t="s">
+      <c r="AV2" s="174"/>
+      <c r="AW2" s="174"/>
+      <c r="AX2" s="174"/>
+      <c r="AY2" s="175"/>
+      <c r="AZ2" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="BA2" s="162"/>
-      <c r="BB2" s="162"/>
-      <c r="BC2" s="162"/>
-      <c r="BD2" s="167"/>
-      <c r="BE2" s="164" t="s">
-        <v>411</v>
-      </c>
-      <c r="BF2" s="165"/>
-      <c r="BG2" s="165"/>
-      <c r="BH2" s="165"/>
-      <c r="BI2" s="166"/>
-      <c r="BJ2" s="161" t="s">
-        <v>420</v>
-      </c>
-      <c r="BK2" s="162"/>
-      <c r="BL2" s="162"/>
-      <c r="BM2" s="162"/>
-      <c r="BN2" s="163"/>
+      <c r="BA2" s="171"/>
+      <c r="BB2" s="171"/>
+      <c r="BC2" s="171"/>
+      <c r="BD2" s="176"/>
+      <c r="BE2" s="173" t="s">
+        <v>407</v>
+      </c>
+      <c r="BF2" s="174"/>
+      <c r="BG2" s="174"/>
+      <c r="BH2" s="174"/>
+      <c r="BI2" s="175"/>
+      <c r="BJ2" s="170" t="s">
+        <v>416</v>
+      </c>
+      <c r="BK2" s="171"/>
+      <c r="BL2" s="171"/>
+      <c r="BM2" s="171"/>
+      <c r="BN2" s="172"/>
       <c r="BO2" s="97" t="s">
         <v>304</v>
       </c>
@@ -6242,181 +6424,181 @@
       </c>
     </row>
     <row r="3" spans="1:68" s="46" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="172"/>
+      <c r="A3" s="164"/>
       <c r="B3" s="121"/>
       <c r="C3" s="43" t="s">
         <v>303</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G3" s="45"/>
       <c r="H3" s="43" t="s">
         <v>303</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="J3" s="43" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K3" s="44" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L3" s="45"/>
       <c r="M3" s="43" t="s">
         <v>303</v>
       </c>
       <c r="N3" s="43" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="O3" s="43" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="P3" s="44" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="Q3" s="70"/>
       <c r="R3" s="70" t="s">
         <v>303</v>
       </c>
       <c r="S3" s="70" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="T3" s="70" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="U3" s="71" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="V3" s="70"/>
       <c r="W3" s="70" t="s">
         <v>303</v>
       </c>
       <c r="X3" s="70" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="Y3" s="70" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="Z3" s="71" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AA3" s="70"/>
       <c r="AB3" s="70" t="s">
         <v>326</v>
       </c>
       <c r="AC3" s="70" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="AD3" s="70" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AE3" s="71" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AF3" s="70"/>
       <c r="AG3" s="70" t="s">
         <v>326</v>
       </c>
       <c r="AH3" s="70" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="AI3" s="70" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AJ3" s="71" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AK3" s="43"/>
       <c r="AL3" s="43" t="s">
         <v>303</v>
       </c>
       <c r="AM3" s="43" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="AN3" s="43" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AO3" s="44" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AP3" s="45"/>
       <c r="AQ3" s="43" t="s">
         <v>303</v>
       </c>
       <c r="AR3" s="43" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="AS3" s="43" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AT3" s="44" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AU3" s="43"/>
       <c r="AV3" s="43" t="s">
         <v>303</v>
       </c>
       <c r="AW3" s="43" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="AX3" s="43" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AY3" s="44" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AZ3" s="70"/>
       <c r="BA3" s="70" t="s">
         <v>303</v>
       </c>
       <c r="BB3" s="70" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="BC3" s="70" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="BD3" s="71" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="BE3" s="45"/>
       <c r="BF3" s="43" t="s">
         <v>303</v>
       </c>
       <c r="BG3" s="43" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="BH3" s="43" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="BI3" s="44" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="BJ3" s="72"/>
       <c r="BK3" s="70" t="s">
         <v>303</v>
       </c>
       <c r="BL3" s="70" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="BM3" s="70" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="BN3" s="107" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="BO3" s="47"/>
       <c r="BP3" s="48"/>
     </row>
     <row r="4" spans="1:68" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="173" t="s">
+      <c r="A4" s="165" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="138" t="s">
@@ -6453,10 +6635,10 @@
       </c>
       <c r="S4" s="109"/>
       <c r="T4" s="59" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="U4" s="84" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="V4" s="27"/>
       <c r="W4" s="57"/>
@@ -6499,7 +6681,7 @@
       <c r="AR4" s="68"/>
       <c r="AS4" s="59"/>
       <c r="AT4" s="84" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AU4" s="140" t="s">
         <v>198</v>
@@ -6510,24 +6692,20 @@
       <c r="AW4" s="68"/>
       <c r="AX4" s="32"/>
       <c r="AY4" s="34"/>
-      <c r="AZ4" s="27" t="s">
+      <c r="AZ4" s="143" t="s">
         <v>199</v>
       </c>
       <c r="BA4" s="59" t="s">
-        <v>333</v>
-      </c>
-      <c r="BB4" s="108"/>
-      <c r="BC4" s="59" t="s">
-        <v>481</v>
-      </c>
-      <c r="BD4" s="84" t="s">
-        <v>480</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="BB4" s="158"/>
+      <c r="BC4" s="59"/>
+      <c r="BD4" s="84"/>
       <c r="BE4" s="140" t="s">
         <v>200</v>
       </c>
       <c r="BF4" s="57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="BG4" s="68"/>
       <c r="BH4" s="59"/>
@@ -6536,14 +6714,14 @@
         <v>201</v>
       </c>
       <c r="BK4" s="59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="BL4" s="108"/>
       <c r="BM4" s="59"/>
       <c r="BN4" s="110"/>
     </row>
     <row r="5" spans="1:68" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="174"/>
+      <c r="A5" s="166"/>
       <c r="B5" s="139" t="s">
         <v>199</v>
       </c>
@@ -6576,10 +6754,10 @@
       </c>
       <c r="S5" s="49"/>
       <c r="T5" s="55" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="U5" s="83" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AA5" s="144" t="s">
         <v>203</v>
@@ -6606,10 +6784,10 @@
       </c>
       <c r="AR5" s="69"/>
       <c r="AS5" s="55" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AT5" s="83" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AU5" s="142" t="s">
         <v>205</v>
@@ -6619,23 +6797,19 @@
       </c>
       <c r="AW5" s="69"/>
       <c r="AX5" s="30"/>
-      <c r="AZ5" s="28" t="s">
+      <c r="AZ5" s="144" t="s">
         <v>206</v>
       </c>
       <c r="BA5" s="54" t="s">
-        <v>334</v>
-      </c>
-      <c r="BC5" s="55" t="s">
-        <v>464</v>
-      </c>
-      <c r="BD5" s="83" t="s">
-        <v>451</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="BB5" s="159"/>
+      <c r="BC5" s="55"/>
       <c r="BE5" s="141" t="s">
         <v>208</v>
       </c>
       <c r="BF5" s="54" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="BG5" s="69"/>
       <c r="BH5" s="55"/>
@@ -6643,7 +6817,7 @@
       <c r="BN5" s="111"/>
     </row>
     <row r="6" spans="1:68" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="174"/>
+      <c r="A6" s="166"/>
       <c r="B6" s="139" t="s">
         <v>209</v>
       </c>
@@ -6676,10 +6850,10 @@
       </c>
       <c r="S6" s="49"/>
       <c r="T6" s="55" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="U6" s="83" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AA6" s="28" t="s">
         <v>210</v>
@@ -6688,10 +6862,10 @@
         <v>1015540</v>
       </c>
       <c r="AD6" s="55" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="AE6" s="83" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AF6" s="142" t="s">
         <v>210</v>
@@ -6711,7 +6885,7 @@
       <c r="AR6" s="69"/>
       <c r="AS6" s="55"/>
       <c r="AT6" s="83" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AU6" s="142" t="s">
         <v>212</v>
@@ -6726,7 +6900,7 @@
         <v>213</v>
       </c>
       <c r="BF6" s="54" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="BG6" s="69"/>
       <c r="BH6" s="55"/>
@@ -6734,7 +6908,7 @@
       <c r="BN6" s="111"/>
     </row>
     <row r="7" spans="1:68" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="174"/>
+      <c r="A7" s="166"/>
       <c r="B7" s="122" t="s">
         <v>214</v>
       </c>
@@ -6743,10 +6917,10 @@
       </c>
       <c r="D7" s="96"/>
       <c r="E7" s="30" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G7" s="145" t="s">
         <v>213</v>
@@ -6772,10 +6946,10 @@
       </c>
       <c r="S7" s="49"/>
       <c r="T7" s="55" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="U7" s="83" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AA7" s="144" t="s">
         <v>216</v>
@@ -6802,10 +6976,10 @@
       </c>
       <c r="AR7" s="69"/>
       <c r="AS7" s="55" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AT7" s="83" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AU7" s="142" t="s">
         <v>218</v>
@@ -6824,7 +6998,7 @@
         <v>220</v>
       </c>
       <c r="BF7" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BG7" s="69"/>
       <c r="BH7" s="55"/>
@@ -6832,7 +7006,7 @@
       <c r="BN7" s="111"/>
     </row>
     <row r="8" spans="1:68" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="174"/>
+      <c r="A8" s="166"/>
       <c r="E8" s="30"/>
       <c r="G8" s="35" t="s">
         <v>221</v>
@@ -6842,10 +7016,10 @@
       </c>
       <c r="I8" s="49"/>
       <c r="J8" s="30" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="L8" s="141" t="s">
         <v>213</v>
@@ -6881,10 +7055,10 @@
       </c>
       <c r="AR8" s="69"/>
       <c r="AS8" s="55" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AT8" s="83" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AU8" s="142" t="s">
         <v>224</v>
@@ -6903,7 +7077,7 @@
         <v>225</v>
       </c>
       <c r="BF8" s="54" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BG8" s="69"/>
       <c r="BH8" s="55"/>
@@ -6911,7 +7085,7 @@
       <c r="BN8" s="111"/>
     </row>
     <row r="9" spans="1:68" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="174"/>
+      <c r="A9" s="166"/>
       <c r="E9" s="30"/>
       <c r="G9" s="145" t="s">
         <v>215</v>
@@ -6941,10 +7115,10 @@
         <v>1013537</v>
       </c>
       <c r="AD9" s="55" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AE9" s="83" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AF9" s="142" t="s">
         <v>226</v>
@@ -6964,7 +7138,7 @@
       <c r="AR9" s="69"/>
       <c r="AS9" s="55"/>
       <c r="AT9" s="83" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AU9" s="142" t="s">
         <v>227</v>
@@ -6983,7 +7157,7 @@
         <v>229</v>
       </c>
       <c r="BF9" s="54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BG9" s="69"/>
       <c r="BH9" s="55"/>
@@ -6991,7 +7165,7 @@
       <c r="BN9" s="111"/>
     </row>
     <row r="10" spans="1:68" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="174"/>
+      <c r="A10" s="166"/>
       <c r="E10" s="30"/>
       <c r="J10" s="30"/>
       <c r="L10" s="141" t="s">
@@ -7014,10 +7188,10 @@
         <v>1010590</v>
       </c>
       <c r="AD10" s="55" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AE10" s="83" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AF10" s="142" t="s">
         <v>230</v>
@@ -7041,7 +7215,7 @@
       <c r="BN10" s="111"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="174"/>
+      <c r="A11" s="166"/>
       <c r="E11" s="30"/>
       <c r="J11" s="30"/>
       <c r="L11" s="141" t="s">
@@ -7060,10 +7234,10 @@
         <v>1010580</v>
       </c>
       <c r="AD11" s="55" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AE11" s="83" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AF11" s="142" t="s">
         <v>232</v>
@@ -7092,7 +7266,7 @@
       <c r="BN11" s="111"/>
     </row>
     <row r="12" spans="1:68" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="174"/>
+      <c r="A12" s="166"/>
       <c r="E12" s="30"/>
       <c r="J12" s="30"/>
       <c r="L12" s="141" t="s">
@@ -7126,7 +7300,7 @@
       <c r="BN12" s="111"/>
     </row>
     <row r="13" spans="1:68" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="174"/>
+      <c r="A13" s="166"/>
       <c r="E13" s="30"/>
       <c r="J13" s="30"/>
       <c r="N13" s="30"/>
@@ -7152,7 +7326,7 @@
       <c r="BN13" s="111"/>
     </row>
     <row r="14" spans="1:68" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="175"/>
+      <c r="A14" s="167"/>
       <c r="B14" s="123">
         <f>COUNTA(B4:B13) - COUNTA(E4:E13)</f>
         <v>3</v>
@@ -7235,7 +7409,7 @@
       <c r="AY14" s="37"/>
       <c r="AZ14" s="52">
         <f>COUNTA(AZ4:AZ13) - COUNTA(BC4:BC13)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA14" s="56"/>
       <c r="BB14" s="29"/>
@@ -7259,18 +7433,18 @@
       <c r="BN14" s="112"/>
       <c r="BO14">
         <f>SUM(B14,G14,L14,AK14,AP14,AU14,BE14,Q14,V14,AA14,AF14,AZ14,BJ14)</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:68" s="81" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="173" t="s">
-        <v>486</v>
+      <c r="A15" s="165" t="s">
+        <v>478</v>
       </c>
       <c r="B15" s="146" t="s">
         <v>240</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D15" s="78"/>
       <c r="E15" s="77"/>
@@ -7279,7 +7453,7 @@
         <v>234</v>
       </c>
       <c r="H15" s="77" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I15" s="68"/>
       <c r="J15" s="77"/>
@@ -7288,7 +7462,7 @@
         <v>234</v>
       </c>
       <c r="M15" s="77" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N15" s="68"/>
       <c r="O15" s="77"/>
@@ -7315,10 +7489,10 @@
       </c>
       <c r="AC15" s="96"/>
       <c r="AD15" s="77" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AE15" s="83" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="AF15" s="150" t="s">
         <v>244</v>
@@ -7347,46 +7521,46 @@
         <v>238</v>
       </c>
       <c r="AV15" s="77" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AW15" s="68"/>
       <c r="AX15" s="77"/>
       <c r="AY15" s="79"/>
-      <c r="AZ15" s="78" t="s">
+      <c r="AZ15" s="150" t="s">
         <v>237</v>
       </c>
       <c r="BA15" s="77" t="s">
-        <v>354</v>
-      </c>
-      <c r="BB15" s="96"/>
+        <v>521</v>
+      </c>
+      <c r="BB15" s="159"/>
       <c r="BC15" s="77"/>
       <c r="BD15" s="87"/>
       <c r="BE15" s="148" t="s">
         <v>239</v>
       </c>
       <c r="BF15" s="77" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BG15" s="68"/>
       <c r="BH15" s="77"/>
       <c r="BI15" s="79"/>
-      <c r="BJ15" s="76" t="s">
+      <c r="BJ15" s="148" t="s">
         <v>234</v>
       </c>
       <c r="BK15" s="77" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BL15" s="108"/>
       <c r="BM15" s="77"/>
       <c r="BN15" s="115"/>
     </row>
     <row r="16" spans="1:68" s="81" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="174"/>
+      <c r="A16" s="166"/>
       <c r="B16" s="147" t="s">
         <v>247</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D16" s="74"/>
       <c r="E16" s="73"/>
@@ -7395,7 +7569,7 @@
         <v>236</v>
       </c>
       <c r="H16" s="73" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I16" s="69"/>
       <c r="J16" s="73"/>
@@ -7404,7 +7578,7 @@
         <v>255</v>
       </c>
       <c r="M16" s="73" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N16" s="69"/>
       <c r="O16" s="73"/>
@@ -7431,10 +7605,10 @@
       </c>
       <c r="AC16" s="96"/>
       <c r="AD16" s="73" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AE16" s="83" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="AF16" s="74" t="s">
         <v>249</v>
@@ -7444,10 +7618,10 @@
       </c>
       <c r="AH16" s="96"/>
       <c r="AI16" s="73" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="AJ16" s="83" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="AK16" s="74"/>
       <c r="AL16" s="73"/>
@@ -7463,25 +7637,25 @@
         <v>245</v>
       </c>
       <c r="AV16" s="73" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AW16" s="69"/>
       <c r="AX16" s="73"/>
       <c r="AY16" s="75"/>
-      <c r="AZ16" s="74" t="s">
+      <c r="AZ16" s="151" t="s">
         <v>242</v>
       </c>
       <c r="BA16" s="73" t="s">
-        <v>355</v>
-      </c>
-      <c r="BB16" s="96"/>
+        <v>353</v>
+      </c>
+      <c r="BB16" s="159"/>
       <c r="BC16" s="73"/>
       <c r="BD16" s="88"/>
       <c r="BE16" s="149" t="s">
         <v>246</v>
       </c>
       <c r="BF16" s="73" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="BG16" s="69"/>
       <c r="BH16" s="73"/>
@@ -7493,38 +7667,38 @@
       <c r="BN16" s="116"/>
     </row>
     <row r="17" spans="1:67" s="81" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="174"/>
+      <c r="A17" s="166"/>
       <c r="B17" s="124" t="s">
         <v>252</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D17" s="74"/>
       <c r="E17" s="73" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F17" s="75" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G17" s="80" t="s">
         <v>241</v>
       </c>
       <c r="H17" s="73" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I17" s="69"/>
       <c r="J17" s="73" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="K17" s="75" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="L17" s="149" t="s">
         <v>248</v>
       </c>
       <c r="M17" s="73" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N17" s="69"/>
       <c r="O17" s="73"/>
@@ -7571,7 +7745,7 @@
         <v>250</v>
       </c>
       <c r="AV17" s="73" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AW17" s="69"/>
       <c r="AX17" s="73"/>
@@ -7585,7 +7759,7 @@
         <v>251</v>
       </c>
       <c r="BF17" s="73" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="BG17" s="69"/>
       <c r="BH17" s="73"/>
@@ -7597,7 +7771,7 @@
       <c r="BN17" s="116"/>
     </row>
     <row r="18" spans="1:67" s="81" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="174"/>
+      <c r="A18" s="166"/>
       <c r="B18" s="124"/>
       <c r="C18" s="73"/>
       <c r="D18" s="74"/>
@@ -7607,7 +7781,7 @@
         <v>248</v>
       </c>
       <c r="H18" s="73" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I18" s="69"/>
       <c r="J18" s="73"/>
@@ -7669,7 +7843,7 @@
       <c r="BN18" s="116"/>
     </row>
     <row r="19" spans="1:67" s="103" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="174"/>
+      <c r="A19" s="166"/>
       <c r="B19" s="127"/>
       <c r="C19" s="102"/>
       <c r="F19" s="104"/>
@@ -7709,30 +7883,30 @@
       <c r="BN19" s="117"/>
     </row>
     <row r="20" spans="1:67" s="63" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="174"/>
+      <c r="A20" s="166"/>
       <c r="B20" s="128" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D20" s="50"/>
       <c r="E20" s="60"/>
       <c r="F20" s="61"/>
       <c r="G20" s="62" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H20" s="60" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="I20" s="69"/>
       <c r="J20" s="60"/>
       <c r="K20" s="61"/>
       <c r="L20" s="62" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M20" s="60" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="N20" s="69"/>
       <c r="O20" s="60"/>
@@ -7748,7 +7922,7 @@
       <c r="Y20" s="60"/>
       <c r="Z20" s="61"/>
       <c r="AA20" s="50" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AB20" s="60">
         <v>2007560</v>
@@ -7757,7 +7931,7 @@
       <c r="AD20" s="60"/>
       <c r="AE20" s="89"/>
       <c r="AF20" s="50" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AG20" s="60">
         <v>2007660</v>
@@ -7786,10 +7960,10 @@
       <c r="BC20" s="60"/>
       <c r="BD20" s="89"/>
       <c r="BE20" s="62" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="BF20" s="60" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="BG20" s="69"/>
       <c r="BH20" s="60"/>
@@ -7801,7 +7975,7 @@
       <c r="BN20" s="118"/>
     </row>
     <row r="21" spans="1:67" s="63" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="174"/>
+      <c r="A21" s="166"/>
       <c r="B21" s="128"/>
       <c r="C21" s="60"/>
       <c r="D21" s="50"/>
@@ -7813,10 +7987,10 @@
       <c r="J21" s="60"/>
       <c r="K21" s="61"/>
       <c r="L21" s="62" t="s">
+        <v>423</v>
+      </c>
+      <c r="M21" s="60" t="s">
         <v>427</v>
-      </c>
-      <c r="M21" s="60" t="s">
-        <v>431</v>
       </c>
       <c r="N21" s="69"/>
       <c r="O21" s="60"/>
@@ -7832,7 +8006,7 @@
       <c r="Y21" s="60"/>
       <c r="Z21" s="61"/>
       <c r="AA21" s="50" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AB21" s="60">
         <v>2007520</v>
@@ -7841,7 +8015,7 @@
       <c r="AD21" s="60"/>
       <c r="AE21" s="89"/>
       <c r="AF21" s="50" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AG21" s="60">
         <v>2007620</v>
@@ -7881,7 +8055,7 @@
       <c r="BN21" s="118"/>
     </row>
     <row r="22" spans="1:67" s="63" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="175"/>
+      <c r="A22" s="167"/>
       <c r="B22" s="129"/>
       <c r="C22" s="65"/>
       <c r="D22" s="66"/>
@@ -7953,14 +8127,14 @@
       </c>
     </row>
     <row r="23" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="168" t="s">
+      <c r="A23" s="160" t="s">
         <v>256</v>
       </c>
       <c r="B23" s="152" t="s">
         <v>257</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
@@ -7969,7 +8143,7 @@
         <v>258</v>
       </c>
       <c r="H23" s="59" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I23" s="68"/>
       <c r="J23" s="32"/>
@@ -7978,7 +8152,7 @@
         <v>258</v>
       </c>
       <c r="M23" s="59" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N23" s="68"/>
       <c r="O23" s="32"/>
@@ -7991,10 +8165,10 @@
       </c>
       <c r="S23" s="108"/>
       <c r="T23" s="32" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="U23" s="91" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="V23" s="32"/>
       <c r="W23" s="59"/>
@@ -8009,10 +8183,10 @@
       </c>
       <c r="AC23" s="32"/>
       <c r="AD23" s="59" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AE23" s="91" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AF23" s="32" t="s">
         <v>260</v>
@@ -8022,10 +8196,10 @@
       </c>
       <c r="AH23" s="108"/>
       <c r="AI23" s="32" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AJ23" s="91" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="AK23" s="32"/>
       <c r="AL23" s="59"/>
@@ -8050,41 +8224,41 @@
         <v>262</v>
       </c>
       <c r="BA23" s="59" t="s">
-        <v>367</v>
+        <v>522</v>
       </c>
       <c r="BB23" s="32"/>
       <c r="BC23" s="59" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="BD23" s="91" t="s">
-        <v>458</v>
+        <v>526</v>
       </c>
       <c r="BE23" s="153" t="s">
         <v>263</v>
       </c>
       <c r="BF23" s="59" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="BG23" s="68"/>
       <c r="BH23" s="59"/>
       <c r="BI23" s="42"/>
-      <c r="BJ23" s="156" t="s">
+      <c r="BJ23" s="153" t="s">
         <v>263</v>
       </c>
       <c r="BK23" s="59" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BL23" s="108"/>
       <c r="BM23" s="32"/>
       <c r="BN23" s="120"/>
     </row>
     <row r="24" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="169"/>
+      <c r="A24" s="161"/>
       <c r="B24" s="155" t="s">
         <v>262</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
@@ -8098,7 +8272,7 @@
         <v>263</v>
       </c>
       <c r="M24" s="55" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="N24" s="69"/>
       <c r="O24" s="30"/>
@@ -8121,10 +8295,10 @@
       </c>
       <c r="AC24" s="30"/>
       <c r="AD24" s="55" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AE24" s="55" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AF24" s="30" t="s">
         <v>265</v>
@@ -8134,10 +8308,10 @@
       </c>
       <c r="AH24" s="96"/>
       <c r="AI24" s="55" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AJ24" s="85" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="AK24" s="30"/>
       <c r="AL24" s="55"/>
@@ -8163,7 +8337,7 @@
         <v>266</v>
       </c>
       <c r="BF24" s="55" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="BG24" s="69"/>
       <c r="BH24" s="55"/>
@@ -8175,12 +8349,12 @@
       <c r="BN24" s="113"/>
     </row>
     <row r="25" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="169"/>
+      <c r="A25" s="161"/>
       <c r="B25" s="155" t="s">
         <v>267</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
@@ -8194,7 +8368,7 @@
         <v>266</v>
       </c>
       <c r="M25" s="55" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N25" s="69"/>
       <c r="O25" s="30"/>
@@ -8243,7 +8417,7 @@
         <v>268</v>
       </c>
       <c r="BF25" s="55" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="BG25" s="69"/>
       <c r="BH25" s="55"/>
@@ -8255,19 +8429,19 @@
       <c r="BN25" s="113"/>
     </row>
     <row r="26" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="169"/>
+      <c r="A26" s="161"/>
       <c r="B26" s="125" t="s">
         <v>269</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="30" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="55"/>
@@ -8278,7 +8452,7 @@
         <v>268</v>
       </c>
       <c r="M26" s="55" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="N26" s="69"/>
       <c r="O26" s="30"/>
@@ -8335,7 +8509,7 @@
       <c r="BN26" s="113"/>
     </row>
     <row r="27" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="169"/>
+      <c r="A27" s="161"/>
       <c r="B27" s="125"/>
       <c r="C27" s="55"/>
       <c r="D27" s="30"/>
@@ -8403,7 +8577,7 @@
       <c r="BN27" s="113"/>
     </row>
     <row r="28" spans="1:67" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="170"/>
+      <c r="A28" s="162"/>
       <c r="B28" s="123">
         <f>COUNTA(B23:B27) - COUNTA(E23:E27)</f>
         <v>3</v>
@@ -8508,32 +8682,32 @@
       </c>
     </row>
     <row r="29" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="168" t="s">
+      <c r="A29" s="160" t="s">
         <v>270</v>
       </c>
       <c r="B29" s="152" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="42"/>
       <c r="G29" s="153" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="H29" s="59" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I29" s="68"/>
       <c r="J29" s="32"/>
       <c r="K29" s="42"/>
       <c r="L29" s="153" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="M29" s="59" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="N29" s="68"/>
       <c r="O29" s="32"/>
@@ -8556,10 +8730,10 @@
       </c>
       <c r="AC29" s="32"/>
       <c r="AD29" s="59" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AE29" s="91" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="AF29" s="32" t="s">
         <v>274</v>
@@ -8570,7 +8744,7 @@
       <c r="AH29" s="108"/>
       <c r="AI29" s="32"/>
       <c r="AJ29" s="91" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="AK29" s="32"/>
       <c r="AL29" s="59"/>
@@ -8586,29 +8760,29 @@
       <c r="AR29" s="68"/>
       <c r="AS29" s="59"/>
       <c r="AT29" s="91"/>
-      <c r="AU29" s="157" t="s">
+      <c r="AU29" s="156" t="s">
         <v>276</v>
       </c>
       <c r="AV29" s="59" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AW29" s="68"/>
       <c r="AX29" s="32"/>
       <c r="AY29" s="42"/>
-      <c r="AZ29" s="32" t="s">
+      <c r="AZ29" s="156" t="s">
         <v>271</v>
       </c>
       <c r="BA29" s="59" t="s">
-        <v>381</v>
-      </c>
-      <c r="BB29" s="108"/>
+        <v>378</v>
+      </c>
+      <c r="BB29" s="158"/>
       <c r="BC29" s="59"/>
       <c r="BD29" s="91"/>
       <c r="BE29" s="153" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="BF29" s="59" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="BG29" s="68"/>
       <c r="BH29" s="59"/>
@@ -8617,18 +8791,18 @@
         <v>277</v>
       </c>
       <c r="BK29" s="59" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="BL29" s="108"/>
       <c r="BM29" s="59" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="BN29" s="120" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="30" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="169"/>
+      <c r="A30" s="161"/>
       <c r="B30" s="125"/>
       <c r="C30" s="55"/>
       <c r="D30" s="30"/>
@@ -8638,7 +8812,7 @@
         <v>278</v>
       </c>
       <c r="H30" s="55" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I30" s="69"/>
       <c r="J30" s="30"/>
@@ -8647,14 +8821,14 @@
         <v>272</v>
       </c>
       <c r="M30" s="55" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="N30" s="69"/>
       <c r="O30" s="30" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="P30" s="39" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="Q30" s="30"/>
       <c r="R30" s="55"/>
@@ -8708,7 +8882,7 @@
       <c r="BN30" s="113"/>
     </row>
     <row r="31" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="169"/>
+      <c r="A31" s="161"/>
       <c r="B31" s="125"/>
       <c r="C31" s="55"/>
       <c r="D31" s="30"/>
@@ -8723,14 +8897,14 @@
         <v>279</v>
       </c>
       <c r="M31" s="55" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N31" s="69"/>
       <c r="O31" s="30" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="P31" s="39" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="Q31" s="30"/>
       <c r="R31" s="55"/>
@@ -8784,7 +8958,7 @@
       <c r="BN31" s="113"/>
     </row>
     <row r="32" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="169"/>
+      <c r="A32" s="161"/>
       <c r="B32" s="125"/>
       <c r="C32" s="55"/>
       <c r="D32" s="30"/>
@@ -8799,7 +8973,7 @@
         <v>280</v>
       </c>
       <c r="M32" s="55" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="N32" s="69"/>
       <c r="O32" s="30"/>
@@ -8856,7 +9030,7 @@
       <c r="BN32" s="113"/>
     </row>
     <row r="33" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="169"/>
+      <c r="A33" s="161"/>
       <c r="B33" s="125"/>
       <c r="C33" s="55"/>
       <c r="D33" s="30"/>
@@ -8868,10 +9042,10 @@
       <c r="J33" s="30"/>
       <c r="K33" s="39"/>
       <c r="L33" s="154" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M33" s="55" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="N33" s="69"/>
       <c r="O33" s="30"/>
@@ -8928,7 +9102,7 @@
       <c r="BN33" s="113"/>
     </row>
     <row r="34" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="169"/>
+      <c r="A34" s="161"/>
       <c r="B34" s="125"/>
       <c r="C34" s="55"/>
       <c r="D34" s="30"/>
@@ -8940,10 +9114,10 @@
       <c r="J34" s="30"/>
       <c r="K34" s="39"/>
       <c r="L34" s="154" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="M34" s="55" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N34" s="69"/>
       <c r="O34" s="30"/>
@@ -9000,7 +9174,7 @@
       <c r="BN34" s="113"/>
     </row>
     <row r="35" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="169"/>
+      <c r="A35" s="161"/>
       <c r="B35" s="125"/>
       <c r="C35" s="55"/>
       <c r="D35" s="30"/>
@@ -9068,7 +9242,7 @@
       <c r="BN35" s="113"/>
     </row>
     <row r="36" spans="1:67" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="170"/>
+      <c r="A36" s="162"/>
       <c r="B36" s="126">
         <f>COUNTA(B29:B35) - COUNTA(E29:E35)</f>
         <v>1</v>
@@ -9179,14 +9353,14 @@
       </c>
     </row>
     <row r="37" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="168" t="s">
+      <c r="A37" s="160" t="s">
         <v>281</v>
       </c>
       <c r="B37" s="152" t="s">
         <v>282</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D37" s="32"/>
       <c r="E37" s="32"/>
@@ -9195,7 +9369,7 @@
         <v>133</v>
       </c>
       <c r="H37" s="59" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I37" s="68"/>
       <c r="J37" s="32"/>
@@ -9204,7 +9378,7 @@
         <v>140</v>
       </c>
       <c r="M37" s="59" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N37" s="68"/>
       <c r="O37" s="32"/>
@@ -9214,8 +9388,8 @@
       <c r="S37" s="32"/>
       <c r="T37" s="59"/>
       <c r="U37" s="91"/>
-      <c r="V37" s="157" t="s">
-        <v>509</v>
+      <c r="V37" s="156" t="s">
+        <v>501</v>
       </c>
       <c r="W37" s="59">
         <v>5004801</v>
@@ -9231,13 +9405,13 @@
       </c>
       <c r="AC37" s="32"/>
       <c r="AD37" s="59" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AE37" s="91" t="s">
-        <v>461</v>
-      </c>
-      <c r="AF37" s="157" t="s">
-        <v>511</v>
+        <v>455</v>
+      </c>
+      <c r="AF37" s="156" t="s">
+        <v>503</v>
       </c>
       <c r="AG37" s="59">
         <v>5004690</v>
@@ -9263,68 +9437,68 @@
       <c r="AR37" s="68"/>
       <c r="AS37" s="59"/>
       <c r="AT37" s="91"/>
-      <c r="AU37" s="157" t="s">
-        <v>517</v>
+      <c r="AU37" s="156" t="s">
+        <v>509</v>
       </c>
       <c r="AV37" s="59" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AW37" s="68"/>
       <c r="AX37" s="32"/>
       <c r="AY37" s="42"/>
-      <c r="AZ37" s="32" t="s">
+      <c r="AZ37" s="156" t="s">
         <v>285</v>
       </c>
       <c r="BA37" s="59" t="s">
-        <v>392</v>
-      </c>
-      <c r="BB37" s="108"/>
+        <v>523</v>
+      </c>
+      <c r="BB37" s="158"/>
       <c r="BC37" s="59"/>
       <c r="BD37" s="91"/>
       <c r="BE37" s="153" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="BF37" s="59" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="BG37" s="68"/>
       <c r="BH37" s="59"/>
       <c r="BI37" s="42"/>
-      <c r="BJ37" s="41" t="s">
+      <c r="BJ37" s="153" t="s">
         <v>282</v>
       </c>
       <c r="BK37" s="59" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="BL37" s="108"/>
       <c r="BM37" s="59"/>
       <c r="BN37" s="120"/>
     </row>
     <row r="38" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="169"/>
+      <c r="A38" s="161"/>
       <c r="B38" s="155" t="s">
         <v>286</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
       <c r="F38" s="39"/>
       <c r="G38" s="154" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="H38" s="55" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I38" s="69"/>
       <c r="J38" s="30"/>
       <c r="K38" s="39"/>
       <c r="L38" s="154" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="M38" s="55" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N38" s="69"/>
       <c r="O38" s="30"/>
@@ -9334,8 +9508,8 @@
       <c r="S38" s="30"/>
       <c r="T38" s="55"/>
       <c r="U38" s="85"/>
-      <c r="V38" s="158" t="s">
-        <v>510</v>
+      <c r="V38" s="157" t="s">
+        <v>502</v>
       </c>
       <c r="W38" s="55">
         <v>5004802</v>
@@ -9344,18 +9518,20 @@
       <c r="Y38" s="30"/>
       <c r="Z38" s="39"/>
       <c r="AA38" s="30" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="AB38" s="55">
         <v>5004590</v>
       </c>
       <c r="AC38" s="96"/>
-      <c r="AD38" s="55"/>
+      <c r="AD38" s="55" t="s">
+        <v>525</v>
+      </c>
       <c r="AE38" s="85" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AF38" s="144" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="AG38" s="55">
         <v>5004670</v>
@@ -9377,65 +9553,65 @@
       <c r="AR38" s="69"/>
       <c r="AS38" s="55"/>
       <c r="AT38" s="85"/>
-      <c r="AU38" s="158" t="s">
+      <c r="AU38" s="157" t="s">
         <v>288</v>
       </c>
       <c r="AV38" s="55" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AW38" s="69"/>
       <c r="AX38" s="30"/>
       <c r="AY38" s="39"/>
-      <c r="AZ38" s="30" t="s">
+      <c r="AZ38" s="157" t="s">
         <v>135</v>
       </c>
       <c r="BA38" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="BB38" s="96"/>
+        <v>392</v>
+      </c>
+      <c r="BB38" s="159"/>
       <c r="BC38" s="55"/>
       <c r="BD38" s="85"/>
       <c r="BE38" s="154" t="s">
         <v>289</v>
       </c>
       <c r="BF38" s="55" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="BG38" s="69"/>
       <c r="BH38" s="55"/>
       <c r="BI38" s="39"/>
-      <c r="BJ38" s="38" t="s">
+      <c r="BJ38" s="154" t="s">
         <v>112</v>
       </c>
       <c r="BK38" s="55" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="BL38" s="96"/>
       <c r="BM38" s="55"/>
       <c r="BN38" s="113"/>
     </row>
     <row r="39" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="169"/>
+      <c r="A39" s="161"/>
       <c r="B39" s="139" t="s">
         <v>113</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E39" s="30"/>
       <c r="G39" s="145" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="H39" s="54" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I39" s="69"/>
       <c r="J39" s="30"/>
       <c r="L39" s="145" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="M39" s="54" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="N39" s="69"/>
       <c r="O39" s="30"/>
@@ -9448,10 +9624,10 @@
         <v>5004570</v>
       </c>
       <c r="AD39" s="55" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="AE39" s="83" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AF39" s="144" t="s">
         <v>156</v>
@@ -9464,56 +9640,60 @@
       <c r="AN39" s="30"/>
       <c r="AS39" s="55"/>
       <c r="AU39" s="144" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="AV39" s="54" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AW39" s="69"/>
       <c r="AX39" s="30"/>
       <c r="BC39" s="55"/>
       <c r="BE39" s="145" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="BF39" s="54" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="BG39" s="69"/>
       <c r="BH39" s="55"/>
-      <c r="BJ39" s="35" t="s">
+      <c r="BJ39" s="180" t="s">
         <v>290</v>
       </c>
       <c r="BK39" s="54" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="BL39" s="96"/>
-      <c r="BM39" s="55"/>
-      <c r="BN39" s="111"/>
+      <c r="BM39" s="55" t="s">
+        <v>527</v>
+      </c>
+      <c r="BN39" s="111" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="40" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="169"/>
+      <c r="A40" s="161"/>
       <c r="B40" s="122" t="s">
         <v>291</v>
       </c>
       <c r="C40" s="54" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G40" s="145" t="s">
         <v>112</v>
       </c>
       <c r="H40" s="54" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I40" s="69"/>
       <c r="J40" s="30"/>
       <c r="L40" s="145" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="M40" s="54" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="N40" s="69"/>
       <c r="O40" s="30"/>
@@ -9526,12 +9706,14 @@
         <v>5004550</v>
       </c>
       <c r="AC40" s="96"/>
-      <c r="AD40" s="55"/>
+      <c r="AD40" s="55" t="s">
+        <v>524</v>
+      </c>
       <c r="AE40" s="83" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AF40" s="144" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="AG40" s="54">
         <v>5004620</v>
@@ -9541,46 +9723,46 @@
       <c r="AN40" s="30"/>
       <c r="AS40" s="55"/>
       <c r="AU40" s="144" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="AV40" s="54" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AW40" s="69"/>
       <c r="AX40" s="30"/>
       <c r="BC40" s="55"/>
       <c r="BE40" s="145" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="BF40" s="54" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="BG40" s="69"/>
       <c r="BH40" s="55"/>
-      <c r="BJ40" s="35" t="s">
+      <c r="BJ40" s="145" t="s">
         <v>293</v>
       </c>
       <c r="BK40" s="54" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="BL40" s="96"/>
       <c r="BM40" s="55"/>
       <c r="BN40" s="111"/>
     </row>
     <row r="41" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="169"/>
+      <c r="A41" s="161"/>
       <c r="B41" s="139" t="s">
         <v>161</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E41" s="30"/>
       <c r="G41" s="145" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="H41" s="54" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I41" s="69"/>
       <c r="J41" s="30"/>
@@ -9588,7 +9770,7 @@
         <v>166</v>
       </c>
       <c r="M41" s="54" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="N41" s="69"/>
       <c r="O41" s="30"/>
@@ -9601,12 +9783,14 @@
         <v>5004520</v>
       </c>
       <c r="AC41" s="96"/>
-      <c r="AD41" s="55"/>
+      <c r="AD41" s="55" t="s">
+        <v>525</v>
+      </c>
       <c r="AE41" s="83" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AF41" s="144" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="AG41" s="54">
         <v>5001680</v>
@@ -9619,50 +9803,50 @@
         <v>296</v>
       </c>
       <c r="AV41" s="54" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AW41" s="69"/>
       <c r="AX41" s="30" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="AY41" s="36" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="BC41" s="55"/>
       <c r="BE41" s="145" t="s">
         <v>297</v>
       </c>
       <c r="BF41" s="54" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="BG41" s="69"/>
       <c r="BH41" s="55"/>
-      <c r="BJ41" s="35" t="s">
+      <c r="BJ41" s="145" t="s">
         <v>294</v>
       </c>
       <c r="BK41" s="54" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="BL41" s="96"/>
       <c r="BM41" s="55"/>
       <c r="BN41" s="111"/>
     </row>
     <row r="42" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="169"/>
+      <c r="A42" s="161"/>
       <c r="E42" s="30"/>
       <c r="G42" s="145" t="s">
         <v>161</v>
       </c>
       <c r="H42" s="54" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I42" s="69"/>
       <c r="J42" s="30"/>
       <c r="L42" s="145" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="M42" s="54" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="N42" s="69"/>
       <c r="O42" s="30"/>
@@ -9675,9 +9859,11 @@
         <v>5001580</v>
       </c>
       <c r="AC42" s="96"/>
-      <c r="AD42" s="55"/>
+      <c r="AD42" s="55" t="s">
+        <v>525</v>
+      </c>
       <c r="AE42" s="83" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AF42" s="144" t="s">
         <v>299</v>
@@ -9689,19 +9875,19 @@
       <c r="AI42" s="30"/>
       <c r="AS42" s="55"/>
       <c r="AU42" s="144" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="AV42" s="54" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AW42" s="69"/>
       <c r="AX42" s="30"/>
       <c r="BC42" s="55"/>
       <c r="BE42" s="145" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="BF42" s="54" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="BG42" s="69"/>
       <c r="BH42" s="55"/>
@@ -9709,14 +9895,14 @@
       <c r="BN42" s="111"/>
     </row>
     <row r="43" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="169"/>
+      <c r="A43" s="161"/>
       <c r="E43" s="30"/>
       <c r="J43" s="30"/>
       <c r="L43" s="145" t="s">
         <v>160</v>
       </c>
       <c r="M43" s="54" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="N43" s="69"/>
       <c r="O43" s="30"/>
@@ -9743,7 +9929,7 @@
         <v>177</v>
       </c>
       <c r="AV43" s="54" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AW43" s="69"/>
       <c r="AX43" s="30"/>
@@ -9753,25 +9939,25 @@
       <c r="BN43" s="111"/>
     </row>
     <row r="44" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="169"/>
+      <c r="A44" s="161"/>
       <c r="J44" s="30"/>
       <c r="L44" s="35" t="s">
         <v>301</v>
       </c>
       <c r="M44" s="54" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="N44" s="69"/>
       <c r="O44" s="30" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="P44" s="36" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="T44" s="55"/>
       <c r="Y44" s="30"/>
       <c r="AA44" s="144" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="AB44" s="54">
         <v>5001560</v>
@@ -9788,10 +9974,10 @@
       <c r="AI44" s="30"/>
       <c r="AS44" s="55"/>
       <c r="AU44" s="144" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="AV44" s="54" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AW44" s="69"/>
       <c r="AX44" s="30"/>
@@ -9800,19 +9986,19 @@
       <c r="BN44" s="111"/>
     </row>
     <row r="45" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="169"/>
+      <c r="A45" s="161"/>
       <c r="L45" s="145" t="s">
         <v>294</v>
       </c>
       <c r="M45" s="54" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N45" s="69"/>
       <c r="O45" s="30"/>
       <c r="T45" s="55"/>
       <c r="Y45" s="30"/>
       <c r="AA45" s="144" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="AB45" s="54">
         <v>5001540</v>
@@ -9827,7 +10013,7 @@
       <c r="BN45" s="111"/>
     </row>
     <row r="46" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="169"/>
+      <c r="A46" s="161"/>
       <c r="O46" s="30"/>
       <c r="T46" s="55"/>
       <c r="AD46" s="55"/>
@@ -9835,7 +10021,7 @@
       <c r="BN46" s="111"/>
     </row>
     <row r="47" spans="1:67" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="170"/>
+      <c r="A47" s="162"/>
       <c r="B47" s="123">
         <f>COUNTA(B37:B46) -COUNTA(E37:E46)</f>
         <v>4</v>
@@ -9878,7 +10064,7 @@
       <c r="Z47" s="37"/>
       <c r="AA47" s="52">
         <f>COUNTA(AA37:AA46) -COUNTA(AD37:AD46)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AB47" s="56"/>
       <c r="AC47" s="29"/>
@@ -9934,7 +10120,7 @@
       <c r="BI47" s="37"/>
       <c r="BJ47" s="52">
         <f>COUNTA(BJ37:BJ46) -COUNTA(BM37:BM46)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BK47" s="56"/>
       <c r="BL47" s="29"/>
@@ -9942,7 +10128,7 @@
       <c r="BN47" s="112"/>
       <c r="BO47">
         <f>SUM(B47,G47,L47,AK47,AP47,AU47,BE47,Q47,V47,AA47,AF47,AZ47,BJ47)</f>
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:67" s="46" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10047,12 +10233,6 @@
     <row r="50" spans="2:67" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A37:A47"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="A23:A28"/>
     <mergeCell ref="A1:BN1"/>
     <mergeCell ref="BJ2:BN2"/>
     <mergeCell ref="BE2:BI2"/>
@@ -10067,6 +10247,12 @@
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="A37:A47"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10088,21 +10274,21 @@
   <sheetData>
     <row r="6" spans="5:9" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G6" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="H6" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="I6" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -10116,7 +10302,7 @@
     </row>
     <row r="8" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -10192,7 +10378,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="177" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -10234,7 +10420,7 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="177"/>
+      <c r="B7" s="178"/>
       <c r="C7" s="4" t="s">
         <v>87</v>
       </c>
@@ -10270,7 +10456,7 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="177"/>
+      <c r="B8" s="178"/>
       <c r="C8" s="4" t="s">
         <v>88</v>
       </c>
@@ -10304,7 +10490,7 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="177"/>
+      <c r="B9" s="178"/>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
@@ -10338,7 +10524,7 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="177"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5" t="s">
         <v>92</v>
@@ -10368,7 +10554,7 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="177"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5" t="s">
         <v>19</v>
@@ -10398,7 +10584,7 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="177"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -10420,7 +10606,7 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="177"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -10442,7 +10628,7 @@
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="177"/>
+      <c r="B14" s="178"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -10460,7 +10646,7 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="178"/>
+      <c r="B15" s="179"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -10476,7 +10662,7 @@
       <c r="O15" s="9"/>
     </row>
     <row r="16" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="176" t="s">
+      <c r="B16" s="177" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -10518,7 +10704,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="177"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="4" t="s">
         <v>40</v>
       </c>
@@ -10554,7 +10740,7 @@
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="177"/>
+      <c r="B18" s="178"/>
       <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
@@ -10588,7 +10774,7 @@
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="177"/>
+      <c r="B19" s="178"/>
       <c r="C19" s="4" t="s">
         <v>42</v>
       </c>
@@ -10618,7 +10804,7 @@
       <c r="O19" s="6"/>
     </row>
     <row r="20" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="177"/>
+      <c r="B20" s="178"/>
       <c r="C20" s="4" t="s">
         <v>43</v>
       </c>
@@ -10642,7 +10828,7 @@
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="177"/>
+      <c r="B21" s="178"/>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -10660,7 +10846,7 @@
       <c r="O21" s="12"/>
     </row>
     <row r="22" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="178"/>
+      <c r="B22" s="179"/>
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -10676,7 +10862,7 @@
       <c r="O22" s="15"/>
     </row>
     <row r="23" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="177" t="s">
         <v>93</v>
       </c>
       <c r="C23" s="16" t="s">
@@ -10714,7 +10900,7 @@
       </c>
     </row>
     <row r="24" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="177"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="10" t="s">
         <v>95</v>
       </c>
@@ -10740,7 +10926,7 @@
       <c r="O24" s="12"/>
     </row>
     <row r="25" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="177"/>
+      <c r="B25" s="178"/>
       <c r="C25" s="10" t="s">
         <v>96</v>
       </c>
@@ -10762,7 +10948,7 @@
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="177"/>
+      <c r="B26" s="178"/>
       <c r="C26" s="10" t="s">
         <v>97</v>
       </c>
@@ -10782,7 +10968,7 @@
       <c r="O26" s="12"/>
     </row>
     <row r="27" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="178"/>
+      <c r="B27" s="179"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -10798,7 +10984,7 @@
       <c r="O27" s="9"/>
     </row>
     <row r="28" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="176" t="s">
+      <c r="B28" s="177" t="s">
         <v>116</v>
       </c>
       <c r="C28" s="16" t="s">
@@ -10836,7 +11022,7 @@
       </c>
     </row>
     <row r="29" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="177"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11" t="s">
         <v>127</v>
@@ -10856,7 +11042,7 @@
       <c r="O29" s="12"/>
     </row>
     <row r="30" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="177"/>
+      <c r="B30" s="178"/>
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -10874,7 +11060,7 @@
       <c r="O30" s="12"/>
     </row>
     <row r="31" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="177"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="10"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -10892,7 +11078,7 @@
       <c r="O31" s="12"/>
     </row>
     <row r="32" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B32" s="177"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="10"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -10910,7 +11096,7 @@
       <c r="O32" s="12"/>
     </row>
     <row r="33" spans="2:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="177"/>
+      <c r="B33" s="178"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -10928,7 +11114,7 @@
       <c r="O33" s="12"/>
     </row>
     <row r="34" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="178"/>
+      <c r="B34" s="179"/>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
@@ -10944,7 +11130,7 @@
       <c r="O34" s="15"/>
     </row>
     <row r="35" spans="2:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B35" s="176" t="s">
+      <c r="B35" s="177" t="s">
         <v>131</v>
       </c>
       <c r="C35" s="16" t="s">
@@ -10986,7 +11172,7 @@
       </c>
     </row>
     <row r="36" spans="2:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B36" s="177"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="10" t="s">
         <v>143</v>
       </c>
@@ -11024,7 +11210,7 @@
       </c>
     </row>
     <row r="37" spans="2:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B37" s="177"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="4" t="s">
         <v>113</v>
       </c>
@@ -11056,7 +11242,7 @@
       </c>
     </row>
     <row r="38" spans="2:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B38" s="177"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="4" t="s">
         <v>155</v>
       </c>
@@ -11088,7 +11274,7 @@
       </c>
     </row>
     <row r="39" spans="2:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B39" s="177"/>
+      <c r="B39" s="178"/>
       <c r="C39" s="4" t="s">
         <v>161</v>
       </c>
@@ -11120,7 +11306,7 @@
       </c>
     </row>
     <row r="40" spans="2:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B40" s="177"/>
+      <c r="B40" s="178"/>
       <c r="C40" s="4"/>
       <c r="D40" s="5" t="s">
         <v>169</v>
@@ -11148,7 +11334,7 @@
       <c r="O40" s="6"/>
     </row>
     <row r="41" spans="2:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B41" s="177"/>
+      <c r="B41" s="178"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -11172,7 +11358,7 @@
       <c r="O41" s="6"/>
     </row>
     <row r="42" spans="2:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B42" s="177"/>
+      <c r="B42" s="178"/>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -11196,7 +11382,7 @@
       <c r="O42" s="6"/>
     </row>
     <row r="43" spans="2:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B43" s="177"/>
+      <c r="B43" s="178"/>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -11215,7 +11401,7 @@
       <c r="O43" s="6"/>
     </row>
     <row r="44" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="177"/>
+      <c r="B44" s="178"/>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
